--- a/Civilworks cost/Slope Protection/Input.xlsx
+++ b/Civilworks cost/Slope Protection/Input.xlsx
@@ -4,13 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
-    <sheet name="R3" sheetId="4" r:id="rId2"/>
-    <sheet name="R2" sheetId="3" r:id="rId3"/>
-    <sheet name="R1" sheetId="2" r:id="rId4"/>
+    <sheet name="Packages" sheetId="6" r:id="rId2"/>
+    <sheet name="R1" sheetId="2" r:id="rId3"/>
+    <sheet name="R2" sheetId="3" r:id="rId4"/>
+    <sheet name="R3" sheetId="4" r:id="rId5"/>
+    <sheet name="R4" sheetId="7" r:id="rId6"/>
+    <sheet name="R5" sheetId="8" r:id="rId7"/>
+    <sheet name="R6" sheetId="9" r:id="rId8"/>
+    <sheet name="R7" sheetId="10" r:id="rId9"/>
+    <sheet name="BoQ" sheetId="5" r:id="rId10"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="71">
   <si>
     <t>Reach</t>
   </si>
@@ -39,9 +45,6 @@
     <t>SheetName</t>
   </si>
   <si>
-    <t>Cost</t>
-  </si>
-  <si>
     <t>R1</t>
   </si>
   <si>
@@ -49,6 +52,195 @@
   </si>
   <si>
     <t>R3</t>
+  </si>
+  <si>
+    <t>chainage</t>
+  </si>
+  <si>
+    <t>Area</t>
+  </si>
+  <si>
+    <t>h</t>
+  </si>
+  <si>
+    <t>delx</t>
+  </si>
+  <si>
+    <t>delA</t>
+  </si>
+  <si>
+    <t>cumDelA</t>
+  </si>
+  <si>
+    <t>h_avg</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Cum</t>
+  </si>
+  <si>
+    <t>Sqm</t>
+  </si>
+  <si>
+    <t>Nos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fine dressing and close turfing of the slopes and the crest of embankment with 75mm thick, good quality durba or charkanta sods of size 200mm x 200mm, with all leads and lifts, including ramming, watering until the turf grows properly, maintaining etc. complete (measurement will be given on well grown grass only). as per direction of Engineer in charge. </t>
+  </si>
+  <si>
+    <t>sqm</t>
+  </si>
+  <si>
+    <t>16-100</t>
+  </si>
+  <si>
+    <t>16-180</t>
+  </si>
+  <si>
+    <t>Unit</t>
+  </si>
+  <si>
+    <t>Rate</t>
+  </si>
+  <si>
+    <t>ItemCode</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Erection of bamboo profile </t>
+  </si>
+  <si>
+    <t>16-220-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Earth work by carried earth (by truck/boat or any other means). 16-220-10 . 300m to 1.00 km.(85% compaction) </t>
+  </si>
+  <si>
+    <t>16-240-10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Earth work by Mechanical Excavator (Long Boon) in constructing/ resectioning of embankment/canal bank/ road etc. </t>
+  </si>
+  <si>
+    <t>Royalty of specified earth taken from private land</t>
+  </si>
+  <si>
+    <t>40-550-30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supplying and laying sand as filter layers  FM : 1.0 to 1.5 </t>
+  </si>
+  <si>
+    <t>40-500-40</t>
+  </si>
+  <si>
+    <t>Supplying and placing non-woven needle punched type geotextile fabric as filter thickness=3.0 mm</t>
+  </si>
+  <si>
+    <t>40-530-20</t>
+  </si>
+  <si>
+    <t>40-190-40</t>
+  </si>
+  <si>
+    <t>Supplying and laying shingles and peagravels as filter in two layers  :Well graded between 20mm to 5mm size.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Supplying and laying shingles and peagravels as filter in two layers :Well graded between 40mm to 20mm size. . </t>
+  </si>
+  <si>
+    <t>Manufacturing and supplying C.C. blocks in leanest mix. 1:2.5:5  : Block Size: 40cmx40cmx20cm</t>
+  </si>
+  <si>
+    <t>Manufacturing and supplying C.C. blocks in leanest mix. 1:2.5:5  : Block Size: 30cmx30cmx30cm</t>
+  </si>
+  <si>
+    <t>40-270-10</t>
+  </si>
+  <si>
+    <t>40-270-20</t>
+  </si>
+  <si>
+    <t>Labour charge for protective works in laying CC blocks of different sizes including preparation of base: Within 200 m.</t>
+  </si>
+  <si>
+    <t>Labour charge for protective works in laying CC blocks of different sizes including preparation of base:200m to 500m</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cement concrete work in leanest mix. 1:3:6 </t>
+  </si>
+  <si>
+    <t>28-120</t>
+  </si>
+  <si>
+    <t>48-100</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Supplying filling and placing of geo-textile bags of wt: 125kg</t>
+  </si>
+  <si>
+    <t>40-380-30</t>
+  </si>
+  <si>
+    <t>40-530-30</t>
+  </si>
+  <si>
+    <t>fill_height</t>
+  </si>
+  <si>
+    <t>package</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>rowindex</t>
+  </si>
+  <si>
+    <t>B5</t>
+  </si>
+  <si>
+    <t>sl</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>KISH/PW-30</t>
+  </si>
+  <si>
+    <t>KISH/PW-31</t>
+  </si>
+  <si>
+    <t>KISH/PW-32</t>
+  </si>
+  <si>
+    <t>KISH/PW-33</t>
+  </si>
+  <si>
+    <t>KISH/PW-34</t>
+  </si>
+  <si>
+    <t>short_name</t>
+  </si>
+  <si>
+    <t>R4</t>
+  </si>
+  <si>
+    <t>R5</t>
+  </si>
+  <si>
+    <t>R6</t>
+  </si>
+  <si>
+    <t>R7</t>
   </si>
 </sst>
 </file>
@@ -67,12 +259,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -87,13 +285,43 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -375,22 +603,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
-    <col min="5" max="5" width="15" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="4" max="7" width="14" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="9" max="9" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -404,15 +632,24 @@
         <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>6</v>
       </c>
       <c r="B2" s="1">
         <v>12.43</v>
@@ -423,14 +660,24 @@
       <c r="D2" s="2">
         <v>51</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="2"/>
+      <c r="F2" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="2">
+        <f>ROW(A2)</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="B3" s="1">
         <v>19.59</v>
@@ -441,14 +688,24 @@
       <c r="D3" s="2">
         <v>510</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="2"/>
+      <c r="F3" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I3" s="2">
+        <f t="shared" ref="I3:I8" si="0">ROW(A3)</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>8</v>
       </c>
       <c r="B4" s="1">
         <v>20.13</v>
@@ -459,54 +716,1867 @@
       <c r="D4" s="2">
         <v>1120</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="2"/>
+      <c r="F4" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="2">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="1">
+        <v>21.25</v>
+      </c>
+      <c r="C5" s="1">
+        <v>21.95</v>
+      </c>
+      <c r="D5" s="2">
+        <v>700</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="I5" s="2">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6" s="1">
+        <v>21.95</v>
+      </c>
+      <c r="C6" s="1">
+        <v>22.69</v>
+      </c>
+      <c r="D6" s="2">
+        <v>740</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="I6" s="2">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="1">
+        <v>26.08</v>
+      </c>
+      <c r="C7" s="1">
+        <v>26.18</v>
+      </c>
+      <c r="D7" s="2">
+        <v>100</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I7" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="1">
+        <v>17.8</v>
+      </c>
+      <c r="C8" s="1">
+        <v>19.59</v>
+      </c>
+      <c r="D8" s="2">
+        <v>1790</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I8" s="2">
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="F4" s="2"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="100.44140625" style="3" customWidth="1"/>
+    <col min="3" max="3" width="8.21875" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="12">
+        <v>367.41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="12">
+        <v>429.88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="12">
+        <v>157.69999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="12">
+        <v>16.97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1267.96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="12">
+        <v>250.13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="2">
+        <v>5771.61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="2">
+        <v>6135.23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="7">
+        <v>457.33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="2">
+        <v>684.23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="2">
+        <v>1395.03</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="2">
+        <v>2185.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="12">
+        <v>339.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="2">
+        <v>12907.66</v>
+      </c>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="12">
+        <v>32.97</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="19.109375" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>12.43</v>
+      </c>
+      <c r="B2" s="2">
+        <v>16.09</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>12.44</v>
+      </c>
+      <c r="B3" s="2">
+        <v>69.09</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>12.45</v>
+      </c>
+      <c r="B4" s="2">
+        <v>47.21</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>12.47</v>
+      </c>
+      <c r="B5" s="2">
+        <v>5.43</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>12.481</v>
+      </c>
+      <c r="B6" s="2">
+        <v>8</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>19.59</v>
+      </c>
+      <c r="B2" s="2">
+        <v>9</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="B3" s="2">
+        <v>8.9700000000000006</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>19.649999999999999</v>
+      </c>
+      <c r="B4" s="2">
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>19.7</v>
+      </c>
+      <c r="B5" s="2">
+        <v>8.6</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>19.75</v>
+      </c>
+      <c r="B6" s="2">
+        <v>8.77</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>19.8</v>
+      </c>
+      <c r="B7" s="2">
+        <v>8.9700000000000006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>19.850000000000001</v>
+      </c>
+      <c r="B8" s="2">
+        <v>9.77</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="B9" s="2">
+        <v>10.37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>19.95</v>
+      </c>
+      <c r="B10" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>20</v>
+      </c>
+      <c r="B11" s="2">
+        <v>9.75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>20.05</v>
+      </c>
+      <c r="B12" s="2">
+        <v>7.31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="B13" s="2">
+        <v>12.55</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G28"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>20.13</v>
+      </c>
+      <c r="B2" s="2">
+        <v>12.55</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>20.149999999999999</v>
+      </c>
+      <c r="B3" s="2">
+        <v>20.5</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>20.2</v>
+      </c>
+      <c r="B4" s="2">
+        <v>17.87</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>20.25</v>
+      </c>
+      <c r="B5" s="2">
+        <v>15.35</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>20.3</v>
+      </c>
+      <c r="B6" s="2">
+        <v>10.76</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>20.350000000000001</v>
+      </c>
+      <c r="B7" s="2">
+        <v>10.55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="B8" s="2">
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>20.45</v>
+      </c>
+      <c r="B9" s="2">
+        <v>9.27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>20.5</v>
+      </c>
+      <c r="B10" s="2">
+        <v>9.14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>20.55</v>
+      </c>
+      <c r="B11" s="2">
+        <v>9.77</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>20.6</v>
+      </c>
+      <c r="B12" s="2">
+        <v>10.37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>20.65</v>
+      </c>
+      <c r="B13" s="2">
+        <v>10.59</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>20.7</v>
+      </c>
+      <c r="B14" s="2">
+        <v>10.42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>20.75</v>
+      </c>
+      <c r="B15" s="2">
+        <v>9.19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>20.8</v>
+      </c>
+      <c r="B16" s="2">
+        <v>10.050000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>20.85</v>
+      </c>
+      <c r="B17" s="2">
+        <v>9.82</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>20.9</v>
+      </c>
+      <c r="B18" s="2">
+        <v>9.51</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>20.95</v>
+      </c>
+      <c r="B19" s="2">
+        <v>10.95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>21</v>
+      </c>
+      <c r="B20" s="2">
+        <v>10.77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>21.016999999999999</v>
+      </c>
+      <c r="B21" s="2">
+        <v>11.32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>21.027000000000001</v>
+      </c>
+      <c r="B22" s="2">
+        <v>26.32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>21.05</v>
+      </c>
+      <c r="B23" s="2">
+        <v>29.89</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>21.056999999999999</v>
+      </c>
+      <c r="B24" s="2">
+        <v>10.46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>21.1</v>
+      </c>
+      <c r="B25" s="2">
+        <v>10.46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>21.15</v>
+      </c>
+      <c r="B26" s="2">
+        <v>10.24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>21.2</v>
+      </c>
+      <c r="B27" s="2">
+        <v>11.03</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>21.25</v>
+      </c>
+      <c r="B28" s="2">
+        <v>9.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>21.25</v>
+      </c>
+      <c r="B2" s="2">
+        <v>9.5399999999999991</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>21.3</v>
+      </c>
+      <c r="B3" s="2">
+        <v>10.64</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>21.35</v>
+      </c>
+      <c r="B4" s="2">
+        <v>10</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>21.4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>9.6199999999999992</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>21.45</v>
+      </c>
+      <c r="B6" s="2">
+        <v>9.83</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>21.5</v>
+      </c>
+      <c r="B7" s="2">
+        <v>10.83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>21.55</v>
+      </c>
+      <c r="B8" s="2">
+        <v>10.76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>21.6</v>
+      </c>
+      <c r="B9" s="2">
+        <v>11.33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>21.65</v>
+      </c>
+      <c r="B10" s="2">
+        <v>11.12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>21.7</v>
+      </c>
+      <c r="B11" s="2">
+        <v>11.17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>21.75</v>
+      </c>
+      <c r="B12" s="2">
+        <v>11.98</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>21.8</v>
+      </c>
+      <c r="B13" s="2">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>21.85</v>
+      </c>
+      <c r="B14" s="2">
+        <v>11.12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>21.9</v>
+      </c>
+      <c r="B15" s="2">
+        <v>9.0299999999999994</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>21.95</v>
+      </c>
+      <c r="B16" s="2">
+        <v>9.1199999999999992</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>21.95</v>
+      </c>
+      <c r="B2" s="2">
+        <v>9.1199999999999992</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>22</v>
+      </c>
+      <c r="B3" s="2">
+        <v>9.4</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>22.05</v>
+      </c>
+      <c r="B4" s="2">
+        <v>10.77</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>22.1</v>
+      </c>
+      <c r="B5" s="2">
+        <v>10.65</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>22.15</v>
+      </c>
+      <c r="B6" s="2">
+        <v>15.33</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>22.2</v>
+      </c>
+      <c r="B7" s="2">
+        <v>16.93</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>22.25</v>
+      </c>
+      <c r="B8" s="2">
+        <v>12.52</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>22.3</v>
+      </c>
+      <c r="B9" s="2">
+        <v>11.83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>22.35</v>
+      </c>
+      <c r="B10" s="2">
+        <v>12.14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>22.4</v>
+      </c>
+      <c r="B11" s="2">
+        <v>11.78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>22.45</v>
+      </c>
+      <c r="B12" s="2">
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>22.5</v>
+      </c>
+      <c r="B13" s="2">
+        <v>7.98</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>22.55</v>
+      </c>
+      <c r="B14" s="2">
+        <v>9.52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>22.6</v>
+      </c>
+      <c r="B15" s="2">
+        <v>6.79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>22.65</v>
+      </c>
+      <c r="B16" s="2">
+        <v>7.52</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>26.08</v>
+      </c>
+      <c r="B2" s="2">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>26.1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>12.47</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>26.108000000000001</v>
+      </c>
+      <c r="B4" s="2">
+        <v>36.79</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>26.129000000000001</v>
+      </c>
+      <c r="B5" s="2">
+        <v>52.34</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>26.15</v>
+      </c>
+      <c r="B6" s="2">
+        <v>25.68</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>26.157</v>
+      </c>
+      <c r="B7" s="2">
+        <v>5.4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>26.18</v>
+      </c>
+      <c r="B8" s="2">
+        <v>6.55</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="2">
+        <v>17.8</v>
+      </c>
+      <c r="B2" s="2">
+        <v>3.97</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="2">
+        <v>17.850000000000001</v>
+      </c>
+      <c r="B3" s="2">
+        <v>4.1399999999999997</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="2">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="B4" s="2">
+        <v>4.34</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="2">
+        <v>17.95</v>
+      </c>
+      <c r="B5" s="2">
+        <v>4.03</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="2">
+        <v>18</v>
+      </c>
+      <c r="B6" s="2">
+        <v>3.83</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="2">
+        <v>18.05</v>
+      </c>
+      <c r="B7" s="2">
+        <v>3.34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="2">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="B8" s="2">
+        <v>3.63</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="2">
+        <v>18.149999999999999</v>
+      </c>
+      <c r="B9" s="2">
+        <v>3.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="2">
+        <v>18.2</v>
+      </c>
+      <c r="B10" s="2">
+        <v>3.6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="2">
+        <v>18.25</v>
+      </c>
+      <c r="B11" s="2">
+        <v>4.3499999999999996</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="2">
+        <v>18.3</v>
+      </c>
+      <c r="B12" s="2">
+        <v>4.71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="2">
+        <v>18.350000000000001</v>
+      </c>
+      <c r="B13" s="2">
+        <v>4.45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="2">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="B14" s="2">
+        <v>5.61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="2">
+        <v>18.45</v>
+      </c>
+      <c r="B15" s="2">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="2">
+        <v>18.5</v>
+      </c>
+      <c r="B16" s="2">
+        <v>6.23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="2">
+        <v>18.55</v>
+      </c>
+      <c r="B17" s="2">
+        <v>6.68</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="2">
+        <v>18.600000000000001</v>
+      </c>
+      <c r="B18" s="2">
+        <v>6.35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="2">
+        <v>18.649999999999999</v>
+      </c>
+      <c r="B19" s="2">
+        <v>6.02</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="2">
+        <v>18.7</v>
+      </c>
+      <c r="B20" s="2">
+        <v>5.76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="2">
+        <v>18.75</v>
+      </c>
+      <c r="B21" s="2">
+        <v>6.55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="2">
+        <v>18.8</v>
+      </c>
+      <c r="B22" s="2">
+        <v>6.95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="2">
+        <v>18.850000000000001</v>
+      </c>
+      <c r="B23" s="2">
+        <v>6.93</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="2">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="B24" s="2">
+        <v>6.15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="2">
+        <v>18.95</v>
+      </c>
+      <c r="B25" s="2">
+        <v>6.89</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="2">
+        <v>19</v>
+      </c>
+      <c r="B26" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="2">
+        <v>19.05</v>
+      </c>
+      <c r="B27" s="2">
+        <v>7.75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="2">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="B28" s="2">
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" s="2">
+        <v>19.149999999999999</v>
+      </c>
+      <c r="B29" s="2">
+        <v>8.66</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="2">
+        <v>19.2</v>
+      </c>
+      <c r="B30" s="2">
+        <v>8.8000000000000007</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="2">
+        <v>19.25</v>
+      </c>
+      <c r="B31" s="2">
+        <v>8.93</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A32" s="2">
+        <v>19.3</v>
+      </c>
+      <c r="B32" s="2">
+        <v>8.74</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="2">
+        <v>19.350000000000001</v>
+      </c>
+      <c r="B33" s="2">
+        <v>8.94</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="2">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="B34" s="2">
+        <v>8.86</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="2">
+        <v>19.45</v>
+      </c>
+      <c r="B35" s="2">
+        <v>9.3699999999999992</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="2">
+        <v>19.5</v>
+      </c>
+      <c r="B36" s="2">
+        <v>9.0299999999999994</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="2">
+        <v>19.55</v>
+      </c>
+      <c r="B37" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="2">
+        <v>19.59</v>
+      </c>
+      <c r="B38" s="2">
+        <v>8.9700000000000006</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Civilworks cost/Slope Protection/Input.xlsx
+++ b/Civilworks cost/Slope Protection/Input.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="12" activeTab="24"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,22 @@
     <sheet name="R5" sheetId="8" r:id="rId7"/>
     <sheet name="R6" sheetId="9" r:id="rId8"/>
     <sheet name="R7" sheetId="10" r:id="rId9"/>
-    <sheet name="BoQ" sheetId="5" r:id="rId10"/>
+    <sheet name="R8" sheetId="11" r:id="rId10"/>
+    <sheet name="R9" sheetId="12" r:id="rId11"/>
+    <sheet name="R10" sheetId="13" r:id="rId12"/>
+    <sheet name="R11" sheetId="14" r:id="rId13"/>
+    <sheet name="R12" sheetId="15" r:id="rId14"/>
+    <sheet name="R13" sheetId="16" r:id="rId15"/>
+    <sheet name="R14" sheetId="17" r:id="rId16"/>
+    <sheet name="R15" sheetId="18" r:id="rId17"/>
+    <sheet name="R16" sheetId="19" r:id="rId18"/>
+    <sheet name="R17" sheetId="20" r:id="rId19"/>
+    <sheet name="R18" sheetId="21" r:id="rId20"/>
+    <sheet name="R19" sheetId="22" r:id="rId21"/>
+    <sheet name="R20" sheetId="23" r:id="rId22"/>
+    <sheet name="R21" sheetId="24" r:id="rId23"/>
+    <sheet name="R22" sheetId="25" r:id="rId24"/>
+    <sheet name="BoQ" sheetId="5" r:id="rId25"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="86">
   <si>
     <t>Reach</t>
   </si>
@@ -241,6 +256,51 @@
   </si>
   <si>
     <t>R7</t>
+  </si>
+  <si>
+    <t>R8</t>
+  </si>
+  <si>
+    <t>R9</t>
+  </si>
+  <si>
+    <t>R10</t>
+  </si>
+  <si>
+    <t>R11</t>
+  </si>
+  <si>
+    <t>R12</t>
+  </si>
+  <si>
+    <t>R13</t>
+  </si>
+  <si>
+    <t>R14</t>
+  </si>
+  <si>
+    <t>R15</t>
+  </si>
+  <si>
+    <t>R16</t>
+  </si>
+  <si>
+    <t>R17</t>
+  </si>
+  <si>
+    <t>R18</t>
+  </si>
+  <si>
+    <t>R19</t>
+  </si>
+  <si>
+    <t>R20</t>
+  </si>
+  <si>
+    <t>R21</t>
+  </si>
+  <si>
+    <t>R22</t>
   </si>
 </sst>
 </file>
@@ -259,7 +319,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -272,8 +332,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -281,15 +347,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -297,31 +375,53 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -603,244 +703,665 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
-    <col min="3" max="3" width="12.88671875" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1"/>
     <col min="4" max="7" width="14" customWidth="1"/>
     <col min="8" max="8" width="15" customWidth="1"/>
-    <col min="9" max="9" width="11.44140625" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="16">
         <v>12.43</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="16">
         <v>12.481</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="10">
         <v>51</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="10"/>
+      <c r="F2" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="10">
         <f>ROW(A2)</f>
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1">
+      <c r="B3" s="16">
         <v>19.59</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3" s="16">
         <v>20.100000000000001</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="10">
         <v>510</v>
       </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2" t="s">
+      <c r="E3" s="10"/>
+      <c r="F3" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="I3" s="2">
-        <f t="shared" ref="I3:I8" si="0">ROW(A3)</f>
+      <c r="I3" s="10">
+        <f t="shared" ref="I3:I23" si="0">ROW(A3)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="16">
         <v>20.13</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4" s="16">
         <v>21.25</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="10">
         <v>1120</v>
       </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2" t="s">
+      <c r="E4" s="10"/>
+      <c r="F4" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="H4" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="10">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="16">
         <v>21.25</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="16">
         <v>21.95</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="10">
         <v>700</v>
       </c>
-      <c r="F5" s="2" t="s">
+      <c r="E5" s="8"/>
+      <c r="F5" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="10">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="16">
         <v>21.95</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6" s="16">
         <v>22.69</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="10">
         <v>740</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="E6" s="8"/>
+      <c r="F6" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="H6" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="10">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="B7" s="1">
+      <c r="B7" s="16">
         <v>26.08</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7" s="16">
         <v>26.18</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="10">
         <v>100</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="E7" s="8"/>
+      <c r="F7" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="10">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="1">
+      <c r="B8" s="16">
         <v>17.8</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8" s="16">
         <v>19.59</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="10">
         <v>1790</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="E8" s="8"/>
+      <c r="F8" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="G8" s="2" t="s">
+      <c r="G8" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="H8" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="10">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="18">
+        <v>29.25</v>
+      </c>
+      <c r="C9" s="18">
+        <v>29.532</v>
+      </c>
+      <c r="D9" s="17">
+        <v>282</v>
+      </c>
+      <c r="E9" s="19"/>
+      <c r="F9" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="I9" s="17">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="18">
+        <v>29.562000000000001</v>
+      </c>
+      <c r="C10" s="18">
+        <v>30.012</v>
+      </c>
+      <c r="D10" s="17">
+        <v>450</v>
+      </c>
+      <c r="E10" s="19"/>
+      <c r="F10" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G10" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="H10" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="I10" s="17">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11" s="18">
+        <v>32.35</v>
+      </c>
+      <c r="C11" s="18">
+        <v>32.65</v>
+      </c>
+      <c r="D11" s="17">
+        <v>300</v>
+      </c>
+      <c r="E11" s="19"/>
+      <c r="F11" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G11" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="I11" s="17">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" s="18">
+        <v>33.875</v>
+      </c>
+      <c r="C12" s="18">
+        <v>33.924999999999997</v>
+      </c>
+      <c r="D12" s="17">
+        <v>50</v>
+      </c>
+      <c r="E12" s="19"/>
+      <c r="F12" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="H12" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="I12" s="17">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="16">
+        <v>30.75</v>
+      </c>
+      <c r="C13" s="16">
+        <v>31.2</v>
+      </c>
+      <c r="D13" s="10">
+        <v>450</v>
+      </c>
+      <c r="E13" s="8"/>
+      <c r="F13" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="I13" s="10">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" s="16">
+        <v>31.5</v>
+      </c>
+      <c r="C14" s="16">
+        <v>32.35</v>
+      </c>
+      <c r="D14" s="10">
+        <v>850</v>
+      </c>
+      <c r="E14" s="8"/>
+      <c r="F14" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="I14" s="10">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15" s="16">
+        <v>38.715000000000003</v>
+      </c>
+      <c r="C15" s="16">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="D15" s="10">
+        <v>85</v>
+      </c>
+      <c r="E15" s="8"/>
+      <c r="F15" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="I15" s="10">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" s="16">
+        <v>42.8</v>
+      </c>
+      <c r="C16" s="16">
+        <v>42.932000000000002</v>
+      </c>
+      <c r="D16" s="10">
+        <v>132</v>
+      </c>
+      <c r="E16" s="8"/>
+      <c r="F16" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="I16" s="10">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17" s="16">
+        <v>43.975000000000001</v>
+      </c>
+      <c r="C17" s="16">
+        <v>44</v>
+      </c>
+      <c r="D17" s="10">
+        <v>25</v>
+      </c>
+      <c r="E17" s="8"/>
+      <c r="F17" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="I17" s="10">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18" s="18">
+        <v>1.24</v>
+      </c>
+      <c r="C18" s="18">
+        <v>1.3</v>
+      </c>
+      <c r="D18" s="17">
+        <v>60</v>
+      </c>
+      <c r="E18" s="19"/>
+      <c r="F18" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="I18" s="17">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="18">
+        <v>1.6</v>
+      </c>
+      <c r="C19" s="18">
+        <v>2.5049999999999999</v>
+      </c>
+      <c r="D19" s="17">
+        <v>905</v>
+      </c>
+      <c r="E19" s="19"/>
+      <c r="F19" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="I19" s="17">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="20">
+        <v>23.437000000000001</v>
+      </c>
+      <c r="C20" s="20">
+        <v>23.562000000000001</v>
+      </c>
+      <c r="D20" s="7">
+        <v>125</v>
+      </c>
+      <c r="E20" s="5"/>
+      <c r="F20" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H20" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="I20" s="7">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21" s="20">
+        <v>0.88</v>
+      </c>
+      <c r="C21" s="20">
+        <v>1.24</v>
+      </c>
+      <c r="D21" s="7">
+        <v>360</v>
+      </c>
+      <c r="E21" s="5"/>
+      <c r="F21" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H21" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="I21" s="7">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22" s="20">
+        <v>1.3</v>
+      </c>
+      <c r="C22" s="20">
+        <v>1.6</v>
+      </c>
+      <c r="D22" s="7">
+        <v>300</v>
+      </c>
+      <c r="E22" s="5"/>
+      <c r="F22" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="I22" s="7">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" s="20">
+        <v>2.5049999999999999</v>
+      </c>
+      <c r="C23" s="20">
+        <v>3</v>
+      </c>
+      <c r="D23" s="7">
+        <v>495</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="H23" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="I23" s="7">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -849,248 +1370,2187 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="15" customWidth="1"/>
-    <col min="2" max="2" width="100.44140625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="8.21875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="12">
-        <v>367.41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3" s="12">
-        <v>429.88</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" s="12">
-        <v>157.69999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="12">
-        <v>16.97</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1267.96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="12">
-        <v>250.13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="C8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="2">
-        <v>5771.61</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="2">
-        <v>6135.23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="7">
-        <v>457.33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>37</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="2">
-        <v>684.23</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="13.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1395.03</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="2">
-        <v>2185.1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="12">
-        <v>339.8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>47</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="2">
-        <v>12907.66</v>
-      </c>
-      <c r="E15" s="8"/>
-    </row>
-    <row r="16" spans="1:5" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="D16" s="12">
-        <v>32.97</v>
-      </c>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>29.25</v>
+      </c>
+      <c r="B2" s="1">
+        <v>13.64</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>29.398</v>
+      </c>
+      <c r="B3" s="1">
+        <v>18.3</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>29.49</v>
+      </c>
+      <c r="B4" s="1">
+        <v>26.5</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>29.532</v>
+      </c>
+      <c r="B5" s="1">
+        <v>26.75</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G38"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>29.562000000000001</v>
+      </c>
+      <c r="B2" s="1">
+        <v>26.5</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>29.577000000000002</v>
+      </c>
+      <c r="B3" s="1">
+        <v>26.75</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>29.67</v>
+      </c>
+      <c r="B4" s="1">
+        <v>40.94</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>29.762</v>
+      </c>
+      <c r="B5" s="1">
+        <v>22.83</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>29.853999999999999</v>
+      </c>
+      <c r="B6" s="1">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>29.95</v>
+      </c>
+      <c r="B7" s="1">
+        <v>7.73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>29.995999999999999</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>30.012</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1.1499999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1"/>
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1"/>
+      <c r="B37" s="1"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1"/>
+      <c r="B38" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G35"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>32.35</v>
+      </c>
+      <c r="B2" s="1">
+        <v>44.165999999999997</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>32.375</v>
+      </c>
+      <c r="B3" s="1">
+        <v>37.073</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>32.454999999999998</v>
+      </c>
+      <c r="B4" s="1">
+        <v>36.020000000000003</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>32.540999999999997</v>
+      </c>
+      <c r="B5" s="1">
+        <v>33.030999999999999</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>32.65</v>
+      </c>
+      <c r="B6" s="1">
+        <v>33.030999999999999</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G35"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>33.875</v>
+      </c>
+      <c r="B2" s="1">
+        <v>11.872</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>33.924999999999997</v>
+      </c>
+      <c r="B3" s="1">
+        <v>11.872</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G35"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>30.75</v>
+      </c>
+      <c r="B2" s="1">
+        <v>13.169</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>30.83</v>
+      </c>
+      <c r="B3" s="1">
+        <v>4.8170000000000002</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>30.904</v>
+      </c>
+      <c r="B4" s="1">
+        <v>5.0049999999999999</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>30.954000000000001</v>
+      </c>
+      <c r="B5" s="1">
+        <v>7.5910000000000002</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>31.015000000000001</v>
+      </c>
+      <c r="B6" s="1">
+        <v>6.1740000000000004</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>31.2</v>
+      </c>
+      <c r="B7" s="1">
+        <v>16.006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G35"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>31.5</v>
+      </c>
+      <c r="B2" s="1">
+        <v>8.1690000000000005</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>31.602</v>
+      </c>
+      <c r="B3" s="1">
+        <v>7.5679999999999996</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>31.707999999999998</v>
+      </c>
+      <c r="B4" s="1">
+        <v>7.0369999999999999</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>31.832000000000001</v>
+      </c>
+      <c r="B5" s="1">
+        <v>11.409000000000001</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>31.884</v>
+      </c>
+      <c r="B6" s="1">
+        <v>10.507999999999999</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>31.962</v>
+      </c>
+      <c r="B7" s="1">
+        <v>11.087</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>32.027999999999999</v>
+      </c>
+      <c r="B8" s="1">
+        <v>10.923999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>32.106000000000002</v>
+      </c>
+      <c r="B9" s="1">
+        <v>28.713999999999999</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>32.200000000000003</v>
+      </c>
+      <c r="B10" s="1">
+        <v>41.423999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G35"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>38.715000000000003</v>
+      </c>
+      <c r="B2" s="1">
+        <v>35.976999999999997</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>38.799999999999997</v>
+      </c>
+      <c r="B3" s="1">
+        <v>26.631</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G35"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>42.8</v>
+      </c>
+      <c r="B2" s="1">
+        <v>13.846</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>42.932000000000002</v>
+      </c>
+      <c r="B3" s="1">
+        <v>13.846</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G35"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>43.975000000000001</v>
+      </c>
+      <c r="B2" s="1">
+        <v>29.492000000000001</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>44</v>
+      </c>
+      <c r="B3" s="1">
+        <v>28.885999999999999</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G35"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1.24</v>
+      </c>
+      <c r="B2" s="1">
+        <v>18.78</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1.2689999999999999</v>
+      </c>
+      <c r="B3" s="1">
+        <v>23.29</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>1.3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>17.43</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1099,68 +3559,1414 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.109375" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="1" t="s">
         <v>65</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G35"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="B2" s="1">
+        <v>16.47</v>
+      </c>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>1.714</v>
+      </c>
+      <c r="B3" s="1">
+        <v>24.54</v>
+      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>1.788</v>
+      </c>
+      <c r="B4" s="1">
+        <v>13.74</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>1.9370000000000001</v>
+      </c>
+      <c r="B5" s="1">
+        <v>42.22</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>2.016</v>
+      </c>
+      <c r="B6" s="1">
+        <v>39.590000000000003</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>2.339</v>
+      </c>
+      <c r="B7" s="1">
+        <v>40.659999999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>2.3719999999999999</v>
+      </c>
+      <c r="B8" s="1">
+        <v>38.22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>2.46</v>
+      </c>
+      <c r="B9" s="1">
+        <v>25.38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>2.5049999999999999</v>
+      </c>
+      <c r="B10" s="1">
+        <v>50.01</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G35"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="21">
+        <v>23.437000000000001</v>
+      </c>
+      <c r="B2" s="21">
+        <v>10.903</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="21">
+        <v>23.562000000000001</v>
+      </c>
+      <c r="B3" s="21">
+        <v>8.0357000000000003</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G35"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="21">
+        <v>0.88</v>
+      </c>
+      <c r="B2" s="21">
+        <v>5.3</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="21">
+        <v>0.92</v>
+      </c>
+      <c r="B3" s="21">
+        <v>15.22</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>1.04</v>
+      </c>
+      <c r="B4" s="1">
+        <v>9.4499999999999993</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>1.17</v>
+      </c>
+      <c r="B5" s="1">
+        <v>18.71</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>1.24</v>
+      </c>
+      <c r="B6" s="1">
+        <v>20.61</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G35"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="21">
+        <v>1.3</v>
+      </c>
+      <c r="B2" s="21">
+        <v>20.61</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="21">
+        <v>1.39</v>
+      </c>
+      <c r="B3" s="21">
+        <v>10.94</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>1.5780000000000001</v>
+      </c>
+      <c r="B4" s="1">
+        <v>32.229999999999997</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>1.6</v>
+      </c>
+      <c r="B5" s="1">
+        <v>29.56</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G35"/>
+  <sheetViews>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="F11" sqref="F11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="B1" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="21" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="21" t="s">
+        <v>12</v>
+      </c>
+      <c r="G1" s="21" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="21">
+        <v>2.5049999999999999</v>
+      </c>
+      <c r="B2" s="21">
+        <v>27.91</v>
+      </c>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="21">
+        <v>2.6469999999999998</v>
+      </c>
+      <c r="B3" s="21">
+        <v>30.56</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>2.76</v>
+      </c>
+      <c r="B4" s="1">
+        <v>20.43</v>
+      </c>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>2.86</v>
+      </c>
+      <c r="B5" s="1">
+        <v>26.14</v>
+      </c>
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>2.9460000000000002</v>
+      </c>
+      <c r="B6" s="1">
+        <v>29.19</v>
+      </c>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
+        <v>27.97</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1"/>
+      <c r="B19" s="1"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1"/>
+      <c r="B22" s="1"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1"/>
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1"/>
+      <c r="B24" s="1"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1"/>
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1"/>
+      <c r="B27" s="1"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1"/>
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1"/>
+      <c r="B29" s="1"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1"/>
+      <c r="B30" s="1"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1"/>
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
+      <c r="B32" s="1"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1"/>
+      <c r="B33" s="1"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1"/>
+      <c r="B34" s="1"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1"/>
+      <c r="B35" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15" customWidth="1"/>
+    <col min="2" max="2" width="100.42578125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="7">
+        <v>367.41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="7">
+        <v>429.88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="7">
+        <v>157.69999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="7">
+        <v>16.97</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="10">
+        <v>1267.96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="7">
+        <v>250.13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="10">
+        <v>5771.61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="10">
+        <v>6135.23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="15">
+        <v>457.33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="10">
+        <v>684.23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="13.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12" s="10">
+        <v>1395.03</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="10">
+        <v>2185.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="7">
+        <v>339.8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="10">
+        <v>12907.66</v>
+      </c>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:5" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="7">
+        <v>32.97</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1172,95 +4978,95 @@
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>12.43</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>16.09</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>12.44</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>69.09</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>12.45</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>47.21</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>12.47</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>5.43</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>12.481</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>8</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1275,149 +5081,149 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>19.59</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>9</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>19.600000000000001</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>8.9700000000000006</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>19.649999999999999</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>8.6999999999999993</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>19.7</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>8.6</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>19.75</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>8.77</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>19.8</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>8.9700000000000006</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>19.850000000000001</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>9.77</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>19.899999999999999</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>10.37</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>19.95</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>20</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>9.75</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>20.05</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>7.31</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>20.100000000000001</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>12.55</v>
       </c>
     </row>
@@ -1434,269 +5240,269 @@
       <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>20.13</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>12.55</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>20.149999999999999</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>20.5</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>20.2</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>17.87</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>20.25</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>15.35</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>20.3</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>10.76</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>20.350000000000001</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>10.55</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>20.399999999999999</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>9.8000000000000007</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>20.45</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>9.27</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>20.5</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>9.14</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>20.55</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>9.77</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>20.6</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>10.37</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>20.65</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>10.59</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>20.7</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>10.42</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>20.75</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>9.19</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>20.8</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>10.050000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>20.85</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <v>9.82</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>20.9</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>9.51</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>20.95</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="1">
         <v>10.95</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>21</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="1">
         <v>10.77</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>21.016999999999999</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="1">
         <v>11.32</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>21.027000000000001</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="1">
         <v>26.32</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>21.05</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="1">
         <v>29.89</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>21.056999999999999</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="1">
         <v>10.46</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>21.1</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="1">
         <v>10.46</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>21.15</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="1">
         <v>10.24</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>21.2</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="1">
         <v>11.03</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>21.25</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="1">
         <v>9.5</v>
       </c>
     </row>
@@ -1713,173 +5519,173 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>21.25</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>9.5399999999999991</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>21.3</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>10.64</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>21.35</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>10</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>21.4</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>9.6199999999999992</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>21.45</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>9.83</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>21.5</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>10.83</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>21.55</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>10.76</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>21.6</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>11.33</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>21.65</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>11.12</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>21.7</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>11.17</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>21.75</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>11.98</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>21.8</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>9.1</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>21.85</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>11.12</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>21.9</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>9.0299999999999994</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>21.95</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>9.1199999999999992</v>
       </c>
     </row>
@@ -1896,173 +5702,173 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>21.95</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>9.1199999999999992</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>22</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>9.4</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>22.05</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>10.77</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>22.1</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>10.65</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>22.15</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>15.33</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>22.2</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>16.93</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>22.25</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>12.52</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>22.3</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>11.83</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>22.35</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>12.14</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>22.4</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>11.78</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>22.45</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>11.7</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>22.5</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>7.98</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>22.55</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>9.52</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>22.6</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>6.79</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>22.65</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>7.52</v>
       </c>
     </row>
@@ -2079,143 +5885,143 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>26.08</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>4.1399999999999997</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>26.1</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>12.47</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>26.108000000000001</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>36.79</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>26.129000000000001</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>52.34</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>26.15</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>25.68</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>26.157</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>5.4</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>26.18</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>6.55</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="2"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="2"/>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2226,353 +6032,353 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>17.8</v>
       </c>
-      <c r="B2" s="2">
+      <c r="B2" s="1">
         <v>3.97</v>
       </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>17.850000000000001</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>4.1399999999999997</v>
       </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
         <v>17.899999999999999</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>4.34</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
         <v>17.95</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>4.03</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="2">
+      <c r="C5" s="1"/>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
         <v>18</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>3.83</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
         <v>18.05</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>3.34</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
         <v>18.100000000000001</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>3.63</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
         <v>18.149999999999999</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>3.8</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
         <v>18.2</v>
       </c>
-      <c r="B10" s="2">
+      <c r="B10" s="1">
         <v>3.6</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
         <v>18.25</v>
       </c>
-      <c r="B11" s="2">
+      <c r="B11" s="1">
         <v>4.3499999999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
         <v>18.3</v>
       </c>
-      <c r="B12" s="2">
+      <c r="B12" s="1">
         <v>4.71</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
         <v>18.350000000000001</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" s="1">
         <v>4.45</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
         <v>18.399999999999999</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B14" s="1">
         <v>5.61</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
         <v>18.45</v>
       </c>
-      <c r="B15" s="2">
+      <c r="B15" s="1">
         <v>8.4</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>18.5</v>
       </c>
-      <c r="B16" s="2">
+      <c r="B16" s="1">
         <v>6.23</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
         <v>18.55</v>
       </c>
-      <c r="B17" s="2">
+      <c r="B17" s="1">
         <v>6.68</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
         <v>18.600000000000001</v>
       </c>
-      <c r="B18" s="2">
+      <c r="B18" s="1">
         <v>6.35</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
         <v>18.649999999999999</v>
       </c>
-      <c r="B19" s="2">
+      <c r="B19" s="1">
         <v>6.02</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
         <v>18.7</v>
       </c>
-      <c r="B20" s="2">
+      <c r="B20" s="1">
         <v>5.76</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
         <v>18.75</v>
       </c>
-      <c r="B21" s="2">
+      <c r="B21" s="1">
         <v>6.55</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
         <v>18.8</v>
       </c>
-      <c r="B22" s="2">
+      <c r="B22" s="1">
         <v>6.95</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
         <v>18.850000000000001</v>
       </c>
-      <c r="B23" s="2">
+      <c r="B23" s="1">
         <v>6.93</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
         <v>18.899999999999999</v>
       </c>
-      <c r="B24" s="2">
+      <c r="B24" s="1">
         <v>6.15</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
         <v>18.95</v>
       </c>
-      <c r="B25" s="2">
+      <c r="B25" s="1">
         <v>6.89</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
         <v>19</v>
       </c>
-      <c r="B26" s="2">
+      <c r="B26" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
         <v>19.05</v>
       </c>
-      <c r="B27" s="2">
+      <c r="B27" s="1">
         <v>7.75</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
         <v>19.100000000000001</v>
       </c>
-      <c r="B28" s="2">
+      <c r="B28" s="1">
         <v>8.1999999999999993</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
         <v>19.149999999999999</v>
       </c>
-      <c r="B29" s="2">
+      <c r="B29" s="1">
         <v>8.66</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
         <v>19.2</v>
       </c>
-      <c r="B30" s="2">
+      <c r="B30" s="1">
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
         <v>19.25</v>
       </c>
-      <c r="B31" s="2">
+      <c r="B31" s="1">
         <v>8.93</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
         <v>19.3</v>
       </c>
-      <c r="B32" s="2">
+      <c r="B32" s="1">
         <v>8.74</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
         <v>19.350000000000001</v>
       </c>
-      <c r="B33" s="2">
+      <c r="B33" s="1">
         <v>8.94</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
         <v>19.399999999999999</v>
       </c>
-      <c r="B34" s="2">
+      <c r="B34" s="1">
         <v>8.86</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
         <v>19.45</v>
       </c>
-      <c r="B35" s="2">
+      <c r="B35" s="1">
         <v>9.3699999999999992</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
         <v>19.5</v>
       </c>
-      <c r="B36" s="2">
+      <c r="B36" s="1">
         <v>9.0299999999999994</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
         <v>19.55</v>
       </c>
-      <c r="B37" s="2">
+      <c r="B37" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
         <v>19.59</v>
       </c>
-      <c r="B38" s="2">
+      <c r="B38" s="1">
         <v>8.9700000000000006</v>
       </c>
     </row>
